--- a/Estrutura-Curso.xlsx
+++ b/Estrutura-Curso.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PASTA-PESSOAL\PROJETOS\CRIAÇÃO-DE-CURSOS\IntroduçãoLógicaProgramação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PASTA-PESSOAL\SISTEMAS-EM-CONTROLE-VERSAO\CURSO_ILP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Blank" sheetId="1" r:id="rId1"/>
@@ -176,9 +176,6 @@
     <t>Construir programas aplicando conceitos de construção de algoritmos(variáveis, constantes, operadores aritméticos e lógicos,  expressões e estruturas de controle)</t>
   </si>
   <si>
-    <t>Construir programas utilizando a linguagem C</t>
-  </si>
-  <si>
     <t>Introdução - Apresentando o curso e as ferramentas</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>Utilizar conceitos de programação estruturada e modular</t>
+  </si>
+  <si>
+    <t>Construir programas utilizando a linguagem C e apartir deste conhecimento será capaz de contruir progrmas em qualquer outra linguagem.</t>
   </si>
 </sst>
 </file>
@@ -532,10 +532,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -550,17 +561,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -864,12 +864,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
@@ -881,13 +881,13 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="44" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
       <c r="E3" s="42"/>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="46" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="42"/>
@@ -900,7 +900,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="45" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="41"/>
@@ -950,8 +950,8 @@
       <c r="C6" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
       <c r="G6" s="6" t="s">
         <v>8</v>
       </c>
@@ -971,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="42"/>
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="42"/>
@@ -1011,7 +1011,7 @@
       <c r="C9" s="40"/>
       <c r="D9" s="41"/>
       <c r="E9" s="42"/>
-      <c r="G9" s="46" t="str">
+      <c r="G9" s="51" t="str">
         <f>HYPERLINK("https://support.udemy.com/hc/en-us/articles/229606188-Choosing-the-Right-Lecture-Format","More on choosing the best format")</f>
         <v>More on choosing the best format</v>
       </c>
@@ -1040,15 +1040,15 @@
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
+      <c r="B12" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="14"/>
       <c r="J12" s="15" t="s">
         <v>18</v>
@@ -1061,13 +1061,13 @@
       <c r="C13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
+      <c r="D13" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
       <c r="I13" s="14"/>
       <c r="J13" s="17" t="s">
         <v>20</v>
@@ -1106,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>2</v>
@@ -1161,15 +1161,15 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
       <c r="J21" s="28" t="s">
         <v>33</v>
       </c>
@@ -1181,11 +1181,11 @@
       <c r="C22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
       <c r="J22" s="25" t="s">
         <v>34</v>
       </c>
@@ -1271,15 +1271,15 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
       <c r="J31" s="28" t="s">
         <v>33</v>
       </c>
@@ -1291,11 +1291,11 @@
       <c r="C32" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
       <c r="J32" s="25" t="s">
         <v>34</v>
       </c>
@@ -1394,15 +1394,15 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
       <c r="J42" s="28" t="s">
         <v>33</v>
       </c>
@@ -1414,11 +1414,11 @@
       <c r="C43" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="45"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
       <c r="J43" s="25" t="s">
         <v>34</v>
       </c>
@@ -1489,15 +1489,15 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
       <c r="J50" s="28" t="s">
         <v>36</v>
       </c>
@@ -1509,11 +1509,11 @@
       <c r="C51" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="45"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
       <c r="J51" s="25" t="s">
         <v>34</v>
       </c>
@@ -6324,11 +6324,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G3:H3"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="B50:H50"/>
@@ -6344,6 +6339,11 @@
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="D13:H13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
